--- a/data/trans_dic/P78_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P78_2023-Dificultad-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.8757687347801864</v>
+        <v>0.8757687347801861</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.6237977791071658</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.7167559112211805</v>
+        <v>0.7167559112211804</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8210733104618038</v>
+        <v>0.8169675574409389</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5778632205225638</v>
+        <v>0.5772142895918777</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.6802114064476591</v>
+        <v>0.6788359276708082</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9182068650451778</v>
+        <v>0.9217744598822647</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6657934097928047</v>
+        <v>0.6679746720742321</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7501979133387089</v>
+        <v>0.752319522490128</v>
       </c>
     </row>
     <row r="7">
@@ -622,10 +622,10 @@
         <v>0.9210130474889803</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.7142268262606598</v>
+        <v>0.7142268262606597</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.8015631152833418</v>
+        <v>0.8015631152833419</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8818297182338553</v>
+        <v>0.8833162898559169</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6861921063781106</v>
+        <v>0.6878138476748218</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7793138523513118</v>
+        <v>0.7794531111133225</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9459586784038866</v>
+        <v>0.946942784105716</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7389581089911418</v>
+        <v>0.739715536197209</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8200799316435819</v>
+        <v>0.8196752776060279</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.9487844508047627</v>
+        <v>0.9507561883361731</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7975818303290663</v>
+        <v>0.7986270818091159</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8747036416862265</v>
+        <v>0.8769434831728491</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9813903031322634</v>
+        <v>0.9812098739086635</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.842349194218513</v>
+        <v>0.840729213167259</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9028505453461867</v>
+        <v>0.9035462745822952</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.9712401977545053</v>
+        <v>0.9712401977545054</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.8577614431065683</v>
+        <v>0.8577614431065682</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9143111627560697</v>
+        <v>0.9143111627560696</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.9483900849741768</v>
+        <v>0.9482168534915688</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8345907056615547</v>
+        <v>0.8360165787704906</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8972502322956613</v>
+        <v>0.8982285780165792</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9859680418254916</v>
+        <v>0.9843552902009637</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8788921943276533</v>
+        <v>0.8780373816128971</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9273089251410778</v>
+        <v>0.9267559587598179</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.9325010528015774</v>
+        <v>0.9336182595245069</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7540996862373424</v>
+        <v>0.7533037640621285</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8389122824582739</v>
+        <v>0.8382453623683622</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9576202776863233</v>
+        <v>0.9579151185139284</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7824085420495103</v>
+        <v>0.7809209773108466</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8578376797281072</v>
+        <v>0.8579545636026279</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>201432</v>
+        <v>200425</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>242503</v>
+        <v>242231</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>452329</v>
+        <v>451414</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>225262</v>
+        <v>226137</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>279404</v>
+        <v>280319</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>498869</v>
+        <v>500280</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>547794</v>
+        <v>548717</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>583001</v>
+        <v>584379</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1146230</v>
+        <v>1146434</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>587630</v>
+        <v>588242</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>627832</v>
+        <v>628476</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1206189</v>
+        <v>1205594</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>716118</v>
+        <v>717606</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>682131</v>
+        <v>683025</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1408293</v>
+        <v>1411899</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>740728</v>
+        <v>740592</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>720418</v>
+        <v>719033</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1453610</v>
+        <v>1454730</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>654940</v>
+        <v>654821</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>580219</v>
+        <v>581210</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1243405</v>
+        <v>1244761</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>680891</v>
+        <v>679777</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>611018</v>
+        <v>610424</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1285060</v>
+        <v>1284294</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2155835</v>
+        <v>2158418</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2126361</v>
+        <v>2124117</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>4304979</v>
+        <v>4301557</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>2213908</v>
+        <v>2214590</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>2206185</v>
+        <v>2201990</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>4402097</v>
+        <v>4402697</v>
       </c>
     </row>
     <row r="24">
